--- a/powerflowpy/tests/timings/fbs_detailed_timing.xlsx
+++ b/powerflowpy/tests/timings/fbs_detailed_timing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elainelaguerta/Dropbox/LBNL/LinDist3Flow/powerflowpy/tests/timings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAD5135-A784-D446-A72E-1C87D00B059C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A29926-CF9C-4F41-89AB-9665F2A6CEE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fbs_detailed_timing_data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>TIMING DATA FOR FBS. INPUT FILE: powerflowpy/tests/06n3ph_rad_unbal/06node_threephase_radial_unbalanced.dss. All timing data in ms.</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>pre_bwd_sweep_total_time</t>
+  </si>
+  <si>
+    <t>Source code: LinDist3Flow/powerflowpy/fbs_timer.py</t>
+  </si>
+  <si>
+    <t>Source code: LinDist3Flow/powerflowpy/powerflowpy/fbs_detailed_timing.py</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fbs_detailed_timing_data!$B$2</c:f>
+              <c:f>fbs_detailed_timing_data!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -785,7 +791,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$B$3:$B$22</c:f>
+              <c:f>fbs_detailed_timing_data!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -860,11 +866,193 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fbs_detailed_timing_data!$C$2</c:f>
+              <c:f>fbs_detailed_timing_data!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fbs_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1596594030397363"/>
+                  <c:y val="-1.4634442667322835E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$D$4:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.8570679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.237320999999902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.615084000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.622611999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.546521999999896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.257803999999894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.490676999999707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.937513999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102.799242999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.75672299999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.55458100000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156.77762299999901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.037175999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>162.55675299999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.406049999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204.427851</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>228.07881499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209.34036799999899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>227.564967</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>232.724480999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8577-D740-B637-B18821629DF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fbs_detailed_timing_data!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -967,7 +1155,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$C$3:$C$22</c:f>
+              <c:f>fbs_detailed_timing_data!$C$4:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1038,188 +1226,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8577-D740-B637-B18821629DF3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fbs_detailed_timing_data!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fbs_time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.1596594030397363"/>
-                  <c:y val="-1.4634442667322835E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>12.8570679999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.237320999999902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.615084000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.622611999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.546521999999896</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>70.257803999999894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.490676999999707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>101.937513999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>102.799242999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>138.75672299999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>136.55458100000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>156.77762299999901</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>152.037175999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>162.55675299999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>220.406049999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>204.427851</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>228.07881499999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>209.34036799999899</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>227.564967</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>232.724480999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8577-D740-B637-B18821629DF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1461,6 +1467,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2186,216 +2204,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fbs_detailed_timing_data!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>topo_sort_time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$E$3:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.1678999999986599E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5698999999934601E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3090999999818502E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6984999999999298E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6121000000297599E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6665000000298805E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.6167999999719996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.4451000000050897E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.102750000000373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.135412000000112</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13436899999952301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.145380000000638</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.15350400000046999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15676700000000199</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.20829199999994299</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.19354600000154301</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.23622200000072899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21560699999945099</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23375199999975299</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.228955999999058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-9DCC-F74F-A016-282964A0E918}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fbs_detailed_timing_data!$F$2</c:f>
+              <c:f>fbs_detailed_timing_data!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2498,7 +2311,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2567,7 +2380,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$F$3:$F$22</c:f>
+              <c:f>fbs_detailed_timing_data!$F$4:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2642,513 +2455,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:idx val="6"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fbs_detailed_timing_data!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fwd_sweep_total_time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14036417322834646"/>
-                  <c:y val="-2.1152212088597893E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$G$3:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.32057699999998801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68821399999996402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.874539999999979</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1653869999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.44458599999985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7692169999998699</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2101839999997202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3436699999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.6056640000000599</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.19075399999979</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4221309999993199</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.76112700000064</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7535500000012099</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4196350000005298</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9011200000007502</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.1531069999999302</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.4137599999988204</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.27318400000265</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.8237160000000898</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.13552399999939</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-9DCC-F74F-A016-282964A0E918}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fbs_detailed_timing_data!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pre_bwd_sweep_load_update_total_time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13600370811206738"/>
-                  <c:y val="-2.6057893842395836E-4"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$H$3:$H$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.13750400000001001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30211300000004798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36040799999992301</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48402100000033399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60364699999992899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72863600000006001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90480100000012098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.993796000000157</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.08730100000009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2761060000005999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.35442800000085</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.51948000000023</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5661919999994101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8629789999997599</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2775050000007901</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1439450000006999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4411460000024401</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2820019999976102</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.39540499999968</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.4384910000012598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-9DCC-F74F-A016-282964A0E918}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fbs_detailed_timing_data!$I$2</c:f>
+              <c:f>fbs_detailed_timing_data!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3258,7 +2569,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3327,7 +2638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$I$3:$I$22</c:f>
+              <c:f>fbs_detailed_timing_data!$I$4:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3402,11 +2713,1022 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fbs_detailed_timing_data!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>final_calcs_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14036417322834646"/>
+                  <c:y val="-1.0729054551634283E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$K$4:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.56278599999992596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94723799999996094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4018589999998901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97784500000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3257749999998598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8016909999999302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4278069999997798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7957359999998199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.20446500000015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2757290000005002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9404440000001504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.24977400000048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0866239999990404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0074500000001301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1434780000003695</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0232370000006199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0966870000013191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4370009999972204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1831810000009195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.71032099999913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-9DCC-F74F-A016-282964A0E918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fbs_detailed_timing_data!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fwd_sweep_total_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14036417322834646"/>
+                  <c:y val="-2.1152212088597893E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$G$4:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.32057699999998801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68821399999996402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.874539999999979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1653869999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44458599999985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7692169999998699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2101839999997202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3436699999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6056640000000599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.19075399999979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4221309999993199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.76112700000064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7535500000012099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4196350000005298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9011200000007502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1531069999999302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4137599999988204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.27318400000265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8237160000000898</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.13552399999939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-9DCC-F74F-A016-282964A0E918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fbs_detailed_timing_data!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pre_bwd_sweep_load_update_total_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13600370811206738"/>
+                  <c:y val="-2.6057893842395836E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$H$4:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.13750400000001001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30211300000004798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36040799999992301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48402100000033399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60364699999992899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72863600000006001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90480100000012098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.993796000000157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.08730100000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2761060000005999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.35442800000085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.51948000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5661919999994101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8629789999997599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2775050000007901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1439450000006999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4411460000024401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2820019999976102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.39540499999968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4384910000012598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-9DCC-F74F-A016-282964A0E918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>fbs_detailed_timing_data!$J$2</c:f>
+              <c:f>fbs_detailed_timing_data!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>topo_sort_time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.26527446702931456"/>
+                  <c:y val="-8.5370192035349162E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fbs_detailed_timing_data!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.1678999999986599E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5698999999934601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3090999999818502E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6984999999999298E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6121000000297599E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6665000000298805E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6167999999719996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4451000000050897E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.102750000000373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.135412000000112</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13436899999952301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.145380000000638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15350400000046999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15676700000000199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20829199999994299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19354600000154301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23622200000072899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21560699999945099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23375199999975299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.228955999999058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-03A8-3246-B196-3D55243088FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fbs_detailed_timing_data!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3516,7 +3838,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
+              <c:f>fbs_detailed_timing_data!$A$4:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3585,7 +3907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fbs_detailed_timing_data!$J$3:$J$22</c:f>
+              <c:f>fbs_detailed_timing_data!$J$4:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3656,264 +3978,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-9DCC-F74F-A016-282964A0E918}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fbs_detailed_timing_data!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>final_calcs_time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.14036417322834646"/>
-                  <c:y val="-1.0729054551634283E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fbs_detailed_timing_data!$K$3:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.56278599999992596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94723799999996094</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4018589999998901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.97784500000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3257749999998598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8016909999999302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4278069999997798</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7957359999998199</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.20446500000015</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2757290000005002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9404440000001504</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.24977400000048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0866239999990404</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0074500000001301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.1434780000003695</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.0232370000006199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.0966870000013191</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.4370009999972204</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.1831810000009195</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.71032099999913</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-9DCC-F74F-A016-282964A0E918}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4042,7 +4106,6 @@
         <c:axId val="528223296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4145,6 +4208,8 @@
         <c:crossAx val="528221616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4156,14 +4221,42 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68383640816700242"/>
-          <c:y val="0.23752042145810909"/>
-          <c:w val="0.31616354733303997"/>
-          <c:h val="0.38351951509658416"/>
+          <c:x val="0.72069733257183521"/>
+          <c:y val="0.26054200419192208"/>
+          <c:w val="0.24558977837693952"/>
+          <c:h val="0.20651050812892993"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4787,22 +4880,22 @@
                   <c:v>solution_init_time</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>bwd_sweep_total_time</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>final_calcs_time</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fwd_sweep_total_time</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pre_bwd_sweep_total_time</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>topo_sort_time</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>fwd_sweep_total_time</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pre_bwd_sweep_total_time</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>bwd_sweep_total_time</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>convergence_check_total_time</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>final_calcs_time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4817,22 +4910,22 @@
                   <c:v>2.6825999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.90890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.50749999999999995</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.31819999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.13189999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90890000000000004</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50749999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,7 +4975,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7279,15 +7372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7360,15 +7453,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>183354</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>30954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7391,7 +7484,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="165100"/>
+          <a:off x="0" y="419100"/>
           <a:ext cx="12522200" cy="36391054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7701,751 +7794,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>17.792115999999801</v>
-      </c>
-      <c r="C3">
-        <v>4.9350479999998802</v>
-      </c>
-      <c r="D3">
-        <v>12.8570679999999</v>
-      </c>
-      <c r="E3">
-        <v>1.1678999999986599E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.9878479999999499</v>
-      </c>
-      <c r="G3">
-        <v>0.32057699999998801</v>
-      </c>
-      <c r="H3">
-        <v>0.13750400000001001</v>
-      </c>
-      <c r="I3">
-        <v>0.89992500000002296</v>
-      </c>
-      <c r="J3">
-        <v>1.47289999999911E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.56278599999992596</v>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>42.329471999999797</v>
+        <v>17.792115999999801</v>
       </c>
       <c r="C4">
-        <v>9.09215099999982</v>
+        <v>4.9350479999998802</v>
       </c>
       <c r="D4">
-        <v>33.237320999999902</v>
+        <v>12.8570679999999</v>
       </c>
       <c r="E4">
-        <v>2.5698999999934601E-2</v>
+        <v>1.1678999999986599E-2</v>
       </c>
       <c r="F4">
-        <v>5.2398510000000096</v>
+        <v>2.9878479999999499</v>
       </c>
       <c r="G4">
-        <v>0.68821399999996402</v>
+        <v>0.32057699999998801</v>
       </c>
       <c r="H4">
-        <v>0.30211300000004798</v>
+        <v>0.13750400000001001</v>
       </c>
       <c r="I4">
-        <v>1.86281499999985</v>
+        <v>0.89992500000002296</v>
       </c>
       <c r="J4">
-        <v>2.62210000000484E-2</v>
+        <v>1.47289999999911E-2</v>
       </c>
       <c r="K4">
-        <v>0.94723799999996094</v>
+        <v>0.56278599999992596</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>48.493914999999603</v>
+        <v>42.329471999999797</v>
       </c>
       <c r="C5">
-        <v>12.8788309999996</v>
+        <v>9.09215099999982</v>
       </c>
       <c r="D5">
-        <v>35.615084000000003</v>
+        <v>33.237320999999902</v>
       </c>
       <c r="E5">
-        <v>3.3090999999818502E-2</v>
+        <v>2.5698999999934601E-2</v>
       </c>
       <c r="F5">
-        <v>7.72439199999996</v>
+        <v>5.2398510000000096</v>
       </c>
       <c r="G5">
-        <v>0.874539999999979</v>
+        <v>0.68821399999996402</v>
       </c>
       <c r="H5">
-        <v>0.36040799999992301</v>
+        <v>0.30211300000004798</v>
       </c>
       <c r="I5">
-        <v>2.4537159999999898</v>
+        <v>1.86281499999985</v>
       </c>
       <c r="J5">
-        <v>3.08250000000676E-2</v>
+        <v>2.62210000000484E-2</v>
       </c>
       <c r="K5">
-        <v>1.4018589999998901</v>
+        <v>0.94723799999996094</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>66.872744000000097</v>
+        <v>48.493914999999603</v>
       </c>
       <c r="C6">
-        <v>17.250132000000001</v>
+        <v>12.8788309999996</v>
       </c>
       <c r="D6">
-        <v>49.622611999999997</v>
+        <v>35.615084000000003</v>
       </c>
       <c r="E6">
-        <v>4.6984999999999298E-2</v>
+        <v>3.3090999999818502E-2</v>
       </c>
       <c r="F6">
-        <v>9.9851520000000509</v>
+        <v>7.72439199999996</v>
       </c>
       <c r="G6">
-        <v>1.1653869999999</v>
+        <v>0.874539999999979</v>
       </c>
       <c r="H6">
-        <v>0.48402100000033399</v>
+        <v>0.36040799999992301</v>
       </c>
       <c r="I6">
-        <v>3.5419419999997901</v>
+        <v>2.4537159999999898</v>
       </c>
       <c r="J6">
-        <v>4.8799999999848902E-2</v>
+        <v>3.08250000000676E-2</v>
       </c>
       <c r="K6">
-        <v>1.97784500000008</v>
+        <v>1.4018589999998901</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>80.411646000000104</v>
+        <v>66.872744000000097</v>
       </c>
       <c r="C7">
-        <v>20.865124000000101</v>
+        <v>17.250132000000001</v>
       </c>
       <c r="D7">
-        <v>59.546521999999896</v>
+        <v>49.622611999999997</v>
       </c>
       <c r="E7">
-        <v>5.6121000000297599E-2</v>
+        <v>4.6984999999999298E-2</v>
       </c>
       <c r="F7">
-        <v>12.307870999999899</v>
+        <v>9.9851520000000509</v>
       </c>
       <c r="G7">
-        <v>1.44458599999985</v>
+        <v>1.1653869999999</v>
       </c>
       <c r="H7">
-        <v>0.60364699999992899</v>
+        <v>0.48402100000033399</v>
       </c>
       <c r="I7">
-        <v>4.0751180000004803</v>
+        <v>3.5419419999997901</v>
       </c>
       <c r="J7">
-        <v>5.2005999999771201E-2</v>
+        <v>4.8799999999848902E-2</v>
       </c>
       <c r="K7">
-        <v>2.3257749999998598</v>
+        <v>1.97784500000008</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>95.759379000000393</v>
+        <v>80.411646000000104</v>
       </c>
       <c r="C8">
-        <v>25.5015750000004</v>
+        <v>20.865124000000101</v>
       </c>
       <c r="D8">
-        <v>70.257803999999894</v>
+        <v>59.546521999999896</v>
       </c>
       <c r="E8">
-        <v>6.6665000000298805E-2</v>
+        <v>5.6121000000297599E-2</v>
       </c>
       <c r="F8">
-        <v>15.081765999999901</v>
+        <v>12.307870999999899</v>
       </c>
       <c r="G8">
-        <v>1.7692169999998699</v>
+        <v>1.44458599999985</v>
       </c>
       <c r="H8">
-        <v>0.72863600000006001</v>
+        <v>0.60364699999992899</v>
       </c>
       <c r="I8">
-        <v>4.9878820000002202</v>
+        <v>4.0751180000004803</v>
       </c>
       <c r="J8">
-        <v>6.5718000000103402E-2</v>
+        <v>5.2005999999771201E-2</v>
       </c>
       <c r="K8">
-        <v>2.8016909999999302</v>
+        <v>2.3257749999998598</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>126.918590999998</v>
+        <v>95.759379000000393</v>
       </c>
       <c r="C9">
-        <v>34.427913999998999</v>
+        <v>25.5015750000004</v>
       </c>
       <c r="D9">
-        <v>92.490676999999707</v>
+        <v>70.257803999999894</v>
       </c>
       <c r="E9">
-        <v>8.6167999999719996E-2</v>
+        <v>6.6665000000298805E-2</v>
       </c>
       <c r="F9">
-        <v>20.781381999999699</v>
+        <v>15.081765999999901</v>
       </c>
       <c r="G9">
-        <v>2.2101839999997202</v>
+        <v>1.7692169999998699</v>
       </c>
       <c r="H9">
-        <v>0.90480100000012098</v>
+        <v>0.72863600000006001</v>
       </c>
       <c r="I9">
-        <v>6.91958100000023</v>
+        <v>4.9878820000002202</v>
       </c>
       <c r="J9">
-        <v>9.7990999999630901E-2</v>
+        <v>6.5718000000103402E-2</v>
       </c>
       <c r="K9">
-        <v>3.4278069999997798</v>
+        <v>2.8016909999999302</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>137.13254899999899</v>
+        <v>126.918590999998</v>
       </c>
       <c r="C10">
-        <v>35.195034999999798</v>
+        <v>34.427913999998999</v>
       </c>
       <c r="D10">
-        <v>101.937513999999</v>
+        <v>92.490676999999707</v>
       </c>
       <c r="E10">
-        <v>9.4451000000050897E-2</v>
+        <v>8.6167999999719996E-2</v>
       </c>
       <c r="F10">
-        <v>21.304179999999999</v>
+        <v>20.781381999999699</v>
       </c>
       <c r="G10">
-        <v>2.3436699999999</v>
+        <v>2.2101839999997202</v>
       </c>
       <c r="H10">
-        <v>0.993796000000157</v>
+        <v>0.90480100000012098</v>
       </c>
       <c r="I10">
-        <v>6.5744970000003402</v>
+        <v>6.91958100000023</v>
       </c>
       <c r="J10">
-        <v>8.8704999999578094E-2</v>
+        <v>9.7990999999630901E-2</v>
       </c>
       <c r="K10">
-        <v>3.7957359999998199</v>
+        <v>3.4278069999997798</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>140.13237799999999</v>
+        <v>137.13254899999899</v>
       </c>
       <c r="C11">
-        <v>37.333135000000503</v>
+        <v>35.195034999999798</v>
       </c>
       <c r="D11">
-        <v>102.799242999999</v>
+        <v>101.937513999999</v>
       </c>
       <c r="E11">
-        <v>0.102750000000373</v>
+        <v>9.4451000000050897E-2</v>
       </c>
       <c r="F11">
-        <v>21.865419999999901</v>
+        <v>21.304179999999999</v>
       </c>
       <c r="G11">
-        <v>2.6056640000000599</v>
+        <v>2.3436699999999</v>
       </c>
       <c r="H11">
-        <v>1.08730100000009</v>
+        <v>0.993796000000157</v>
       </c>
       <c r="I11">
-        <v>7.37242599999965</v>
+        <v>6.5744970000003402</v>
       </c>
       <c r="J11">
-        <v>9.5109000000315094E-2</v>
+        <v>8.8704999999578094E-2</v>
       </c>
       <c r="K11">
-        <v>4.20446500000015</v>
+        <v>3.7957359999998199</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>188.366782</v>
+        <v>140.13237799999999</v>
       </c>
       <c r="C12">
-        <v>49.610058999999701</v>
+        <v>37.333135000000503</v>
       </c>
       <c r="D12">
-        <v>138.75672299999999</v>
+        <v>102.799242999999</v>
       </c>
       <c r="E12">
-        <v>0.135412000000112</v>
+        <v>0.102750000000373</v>
       </c>
       <c r="F12">
-        <v>30.9283399999997</v>
+        <v>21.865419999999901</v>
       </c>
       <c r="G12">
-        <v>3.19075399999979</v>
+        <v>2.6056640000000599</v>
       </c>
       <c r="H12">
-        <v>1.2761060000005999</v>
+        <v>1.08730100000009</v>
       </c>
       <c r="I12">
-        <v>8.6727589999995303</v>
+        <v>7.37242599999965</v>
       </c>
       <c r="J12">
-        <v>0.13095899999937499</v>
+        <v>9.5109000000315094E-2</v>
       </c>
       <c r="K12">
-        <v>5.2757290000005002</v>
+        <v>4.20446500000015</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>184.660202999999</v>
+        <v>188.366782</v>
       </c>
       <c r="C13">
-        <v>48.105621999998597</v>
+        <v>49.610058999999701</v>
       </c>
       <c r="D13">
-        <v>136.55458100000001</v>
+        <v>138.75672299999999</v>
       </c>
       <c r="E13">
-        <v>0.13436899999952301</v>
+        <v>0.135412000000112</v>
       </c>
       <c r="F13">
-        <v>27.259160999999398</v>
+        <v>30.9283399999997</v>
       </c>
       <c r="G13">
-        <v>3.4221309999993199</v>
+        <v>3.19075399999979</v>
       </c>
       <c r="H13">
-        <v>1.35442800000085</v>
+        <v>1.2761060000005999</v>
       </c>
       <c r="I13">
-        <v>9.8491939999996099</v>
+        <v>8.6727589999995303</v>
       </c>
       <c r="J13">
-        <v>0.14589499999972899</v>
+        <v>0.13095899999937499</v>
       </c>
       <c r="K13">
-        <v>5.9404440000001504</v>
+        <v>5.2757290000005002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>211.85360299999999</v>
+        <v>184.660202999999</v>
       </c>
       <c r="C14">
-        <v>55.075980000001103</v>
+        <v>48.105621999998597</v>
       </c>
       <c r="D14">
-        <v>156.77762299999901</v>
+        <v>136.55458100000001</v>
       </c>
       <c r="E14">
-        <v>0.145380000000638</v>
+        <v>0.13436899999952301</v>
       </c>
       <c r="F14">
-        <v>32.426430999999702</v>
+        <v>27.259160999999398</v>
       </c>
       <c r="G14">
-        <v>3.76112700000064</v>
+        <v>3.4221309999993199</v>
       </c>
       <c r="H14">
-        <v>1.51948000000023</v>
+        <v>1.35442800000085</v>
       </c>
       <c r="I14">
-        <v>10.823420000000301</v>
+        <v>9.8491939999996099</v>
       </c>
       <c r="J14">
-        <v>0.15036799999901199</v>
+        <v>0.14589499999972899</v>
       </c>
       <c r="K14">
-        <v>6.24977400000048</v>
+        <v>5.9404440000001504</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>206.526232999999</v>
+        <v>211.85360299999999</v>
       </c>
       <c r="C15">
-        <v>54.489057000000898</v>
+        <v>55.075980000001103</v>
       </c>
       <c r="D15">
-        <v>152.037175999998</v>
+        <v>156.77762299999901</v>
       </c>
       <c r="E15">
-        <v>0.15350400000046999</v>
+        <v>0.145380000000638</v>
       </c>
       <c r="F15">
-        <v>32.089766000000701</v>
+        <v>32.426430999999702</v>
       </c>
       <c r="G15">
-        <v>3.7535500000012099</v>
+        <v>3.76112700000064</v>
       </c>
       <c r="H15">
-        <v>1.5661919999994101</v>
+        <v>1.51948000000023</v>
       </c>
       <c r="I15">
-        <v>10.699965999998801</v>
+        <v>10.823420000000301</v>
       </c>
       <c r="J15">
-        <v>0.13945500000111999</v>
+        <v>0.15036799999901199</v>
       </c>
       <c r="K15">
-        <v>6.0866239999990404</v>
+        <v>6.24977400000048</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>221.69889999999799</v>
+        <v>206.526232999999</v>
       </c>
       <c r="C16">
-        <v>59.142146999998801</v>
+        <v>54.489057000000898</v>
       </c>
       <c r="D16">
-        <v>162.55675299999999</v>
+        <v>152.037175999998</v>
       </c>
       <c r="E16">
-        <v>0.15676700000000199</v>
+        <v>0.15350400000046999</v>
       </c>
       <c r="F16">
-        <v>33.780681999998798</v>
+        <v>32.089766000000701</v>
       </c>
       <c r="G16">
-        <v>4.4196350000005298</v>
+        <v>3.7535500000012099</v>
       </c>
       <c r="H16">
-        <v>1.8629789999997599</v>
+        <v>1.5661919999994101</v>
       </c>
       <c r="I16">
-        <v>11.750101000000001</v>
+        <v>10.699965999998801</v>
       </c>
       <c r="J16">
-        <v>0.16453299999952201</v>
+        <v>0.13945500000111999</v>
       </c>
       <c r="K16">
-        <v>7.0074500000001301</v>
+        <v>6.0866239999990404</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>308.03020900000098</v>
+        <v>221.69889999999799</v>
       </c>
       <c r="C17">
-        <v>87.624159000001896</v>
+        <v>59.142146999998801</v>
       </c>
       <c r="D17">
-        <v>220.406049999999</v>
+        <v>162.55675299999999</v>
       </c>
       <c r="E17">
-        <v>0.20829199999994299</v>
+        <v>0.15676700000000199</v>
       </c>
       <c r="F17">
-        <v>53.403981000000996</v>
+        <v>33.780681999998798</v>
       </c>
       <c r="G17">
-        <v>5.9011200000007502</v>
+        <v>4.4196350000005298</v>
       </c>
       <c r="H17">
-        <v>2.2775050000007901</v>
+        <v>1.8629789999997599</v>
       </c>
       <c r="I17">
-        <v>16.453878999999699</v>
+        <v>11.750101000000001</v>
       </c>
       <c r="J17">
-        <v>0.23590399999928699</v>
+        <v>0.16453299999952201</v>
       </c>
       <c r="K17">
-        <v>9.1434780000003695</v>
+        <v>7.0074500000001301</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>275.514773000003</v>
+        <v>308.03020900000098</v>
       </c>
       <c r="C18">
-        <v>71.086922000003199</v>
+        <v>87.624159000001896</v>
       </c>
       <c r="D18">
-        <v>204.427851</v>
+        <v>220.406049999999</v>
       </c>
       <c r="E18">
-        <v>0.19354600000154301</v>
+        <v>0.20829199999994299</v>
       </c>
       <c r="F18">
-        <v>40.5509699999999</v>
+        <v>53.403981000000996</v>
       </c>
       <c r="G18">
-        <v>5.1531069999999302</v>
+        <v>5.9011200000007502</v>
       </c>
       <c r="H18">
-        <v>2.1439450000006999</v>
+        <v>2.2775050000007901</v>
       </c>
       <c r="I18">
-        <v>14.8305460000024</v>
+        <v>16.453878999999699</v>
       </c>
       <c r="J18">
-        <v>0.19157099999800301</v>
+        <v>0.23590399999928699</v>
       </c>
       <c r="K18">
-        <v>8.0232370000006199</v>
+        <v>9.1434780000003695</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>315.38963400000398</v>
+        <v>275.514773000003</v>
       </c>
       <c r="C19">
-        <v>87.310819000003306</v>
+        <v>71.086922000003199</v>
       </c>
       <c r="D19">
-        <v>228.07881499999999</v>
+        <v>204.427851</v>
       </c>
       <c r="E19">
-        <v>0.23622200000072899</v>
+        <v>0.19354600000154301</v>
       </c>
       <c r="F19">
-        <v>53.746274000001598</v>
+        <v>40.5509699999999</v>
       </c>
       <c r="G19">
-        <v>5.4137599999988204</v>
+        <v>5.1531069999999302</v>
       </c>
       <c r="H19">
-        <v>2.4411460000024401</v>
+        <v>2.1439450000006999</v>
       </c>
       <c r="I19">
-        <v>16.1592209999978</v>
+        <v>14.8305460000024</v>
       </c>
       <c r="J19">
-        <v>0.21750900000050399</v>
+        <v>0.19157099999800301</v>
       </c>
       <c r="K19">
-        <v>9.0966870000013191</v>
+        <v>8.0232370000006199</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>285.292159999994</v>
+        <v>315.38963400000398</v>
       </c>
       <c r="C20">
-        <v>75.951791999995194</v>
+        <v>87.310819000003306</v>
       </c>
       <c r="D20">
-        <v>209.34036799999899</v>
+        <v>228.07881499999999</v>
       </c>
       <c r="E20">
-        <v>0.21560699999945099</v>
+        <v>0.23622200000072899</v>
       </c>
       <c r="F20">
-        <v>44.511620999996197</v>
+        <v>53.746274000001598</v>
       </c>
       <c r="G20">
-        <v>5.27318400000265</v>
+        <v>5.4137599999988204</v>
       </c>
       <c r="H20">
-        <v>2.2820019999976102</v>
+        <v>2.4411460000024401</v>
       </c>
       <c r="I20">
-        <v>15.036530000002299</v>
+        <v>16.1592209999978</v>
       </c>
       <c r="J20">
-        <v>0.19584699999963801</v>
+        <v>0.21750900000050399</v>
       </c>
       <c r="K20">
-        <v>8.4370009999972204</v>
+        <v>9.0966870000013191</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>312.12903900000202</v>
+        <v>285.292159999994</v>
       </c>
       <c r="C21">
-        <v>84.564072000002696</v>
+        <v>75.951791999995194</v>
       </c>
       <c r="D21">
-        <v>227.564967</v>
+        <v>209.34036799999899</v>
       </c>
       <c r="E21">
-        <v>0.23375199999975299</v>
+        <v>0.21560699999945099</v>
       </c>
       <c r="F21">
-        <v>50.151733000003397</v>
+        <v>44.511620999996197</v>
       </c>
       <c r="G21">
-        <v>5.8237160000000898</v>
+        <v>5.27318400000265</v>
       </c>
       <c r="H21">
-        <v>2.39540499999968</v>
+        <v>2.2820019999976102</v>
       </c>
       <c r="I21">
-        <v>16.547267000000801</v>
+        <v>15.036530000002299</v>
       </c>
       <c r="J21">
-        <v>0.22901799999797101</v>
+        <v>0.19584699999963801</v>
       </c>
       <c r="K21">
-        <v>9.1831810000009195</v>
+        <v>8.4370009999972204</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>312.12903900000202</v>
+      </c>
+      <c r="C22">
+        <v>84.564072000002696</v>
+      </c>
+      <c r="D22">
+        <v>227.564967</v>
+      </c>
+      <c r="E22">
+        <v>0.23375199999975299</v>
+      </c>
+      <c r="F22">
+        <v>50.151733000003397</v>
+      </c>
+      <c r="G22">
+        <v>5.8237160000000898</v>
+      </c>
+      <c r="H22">
+        <v>2.39540499999968</v>
+      </c>
+      <c r="I22">
+        <v>16.547267000000801</v>
+      </c>
+      <c r="J22">
+        <v>0.22901799999797101</v>
+      </c>
+      <c r="K22">
+        <v>9.1831810000009195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>317.159635999996</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>84.435154999997707</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>232.724480999999</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>0.228955999999058</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>47.998190999999501</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>6.13552399999939</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>2.4384910000012598</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>17.686530999998901</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.23714100000038399</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>9.71032099999913</v>
       </c>
     </row>
@@ -8459,7 +8557,7 @@
   <dimension ref="B35:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8506,11 +8604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70253BBB-AAC2-7A4A-AA5A-4500351A4D22}">
   <dimension ref="C47:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R50" sqref="R49:R50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
@@ -8527,53 +8628,56 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>0.50749999999999995</v>
+        <v>0.90890000000000004</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>0.31819999999999998</v>
+        <v>0.50749999999999995</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>0.13189999999999999</v>
+        <v>0.31819999999999998</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>0.90890000000000004</v>
+        <v>0.13189999999999999</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>1.23E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>0.50749999999999995</v>
+        <v>1.23E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C48:D54">
+    <sortCondition descending="1" ref="D48:D54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8583,12 +8687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D7ABBA-C98D-C346-A771-14790F259A85}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
